--- a/property_ratio.xlsx
+++ b/property_ratio.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950"/>
+    <workbookView windowWidth="18530" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>city</t>
   </si>
@@ -63,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,14 +80,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,29 +135,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,16 +179,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,31 +222,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,187 +232,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +473,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -530,7 +562,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,31 +580,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,103 +613,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1027,19 +1064,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1.9428</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>3.133</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>8.2455</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>39.3117</v>
       </c>
     </row>
@@ -1056,7 +1093,7 @@
       <c r="D3">
         <v>9.4284</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>26.1506</v>
       </c>
     </row>
@@ -1073,7 +1110,7 @@
       <c r="D4">
         <v>9.1055</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>22.5951</v>
       </c>
     </row>
@@ -1163,8 +1200,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E8">
-    <sortState ref="A1:E8">
+  <autoFilter ref="A1:E9">
+    <sortState ref="A2:E9">
       <sortCondition ref="E2" descending="1"/>
     </sortState>
     <extLst/>
@@ -1175,4 +1212,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39.3117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>26.1506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>22.5951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>21.7108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18.2738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>15.6027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>14.2502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>12.6292</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B9">
+    <sortState ref="A2:B9">
+      <sortCondition ref="B2" descending="1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/property_ratio.xlsx
+++ b/property_ratio.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>city</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>new_york</t>
+  </si>
+  <si>
+    <t>nasdaq 100</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>sp500</t>
   </si>
 </sst>
 </file>
@@ -65,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +88,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -88,38 +120,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,28 +188,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -208,9 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,181 +277,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,32 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +530,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -548,21 +568,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,31 +589,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,97 +622,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1210,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E9">
-    <sortState ref="A2:E9">
+    <sortState ref="A1:E9">
       <sortCondition ref="E2" descending="1"/>
     </sortState>
     <extLst/>
@@ -1217,10 +1226,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1238,7 +1247,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>39.3117</v>
@@ -1286,27 +1295,46 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>14.2502</v>
+        <v>15.1352</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>14.2502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>12.6292</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>9.4113</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B9">
-    <sortState ref="A2:B9">
+  <autoFilter ref="A1:B10">
+    <sortState ref="A1:B10">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:B11">
+    <sortCondition ref="B2" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/property_ratio.xlsx
+++ b/property_ratio.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>city</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>new_york</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasdaq 100 2x </t>
   </si>
   <si>
     <t>nasdaq 100</t>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,23 +99,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,30 +145,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +174,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -172,14 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -188,22 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,14 +215,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,49 +280,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,114 +448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,18 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +474,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,23 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,16 +563,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,127 +595,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,15 +1229,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1246,93 +1250,101 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>182.7094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
         <v>39.3117</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>26.1506</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>22.5951</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>21.7108</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>18.2738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>15.6027</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>15.1352</v>
+        <v>15.6027</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>14.2502</v>
+        <v>15.1352</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>12.6292</v>
+        <v>14.2502</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11">
+        <v>12.6292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
         <v>9.4113</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10">
-    <sortState ref="A1:B10">
+  <autoFilter ref="A1:B11">
+    <sortState ref="A1:B11">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:B11">
+  <sortState ref="A2:B12">
     <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/property_ratio.xlsx
+++ b/property_ratio.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -91,6 +91,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -100,60 +108,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,20 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -189,6 +175,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -197,39 +198,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,103 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,79 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,25 +475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +500,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +539,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -545,32 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -592,130 +592,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1250,10 +1250,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>182.7094</v>
       </c>
     </row>
@@ -1338,8 +1338,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B11">
-    <sortState ref="A1:B11">
+  <autoFilter ref="A1:B12">
+    <sortState ref="A1:B12">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
